--- a/data/long_razon/P24_7-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_7-Edad-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>64,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>79,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-47,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>63,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-51,78; 472,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-37,64; 403,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 294,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 13,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 260,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-46,25; 78,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>67,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 255,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,08; 64,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 95,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,35; 50,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 101,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,08; 25,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-20,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-60,49; 86,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 199,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,94; 97,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,68; 83,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,5; 60,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 90,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>57,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,32 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 187,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 148,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 100,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 98,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 93,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 87,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-21,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -959,32 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,33; 175,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 70,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-55,01; 31,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-34,7; 86,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 46,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 51,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>114,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>64,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-45,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>68,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,55; 710,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 233,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-70,29; 1,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 239,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 97,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 145,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>38,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1119,47 +1564,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 94,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 70,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,82; 23,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 41,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 43,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,9; 43,73</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P24_7-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_7-Edad-long_razon.xlsx
@@ -659,18 +659,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.7528238793209279</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.7678854584112134</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.05333657795078825</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.664926974633841</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.7424796658795773</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.5035559641561883</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.606088240360672</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.4446400745347452</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.747043775127974</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.02174843857463367</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.5511722717694617</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1.009665107465793</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -679,18 +703,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.5430136528781837</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3448576946605583</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5668644252497779</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.06463091721100273</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2548704683185142</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.7962525138658826</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.1396500787047041</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.442261359937192</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.1771974501440818</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.464026123126568</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1490274085522608</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.01540823156123862</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -699,18 +747,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>5.239314212154456</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.533039135433933</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.59727392888763</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>6.297637781817005</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>3.599613001301835</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1300722006606725</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>5.261874333884236</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>2.782695871544467</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>2.66952579789932</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.7361777351296738</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.894280331619851</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>3.27291155507298</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,18 +795,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.4415140659368418</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3475946871244139</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.7127057591081479</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.441389093076478</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1595688934367633</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1807969764711362</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>1.902100726639558</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>1.716287454453774</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.2817297267519429</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.2610036382481252</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>1.262049062562473</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>1.035792677155539</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -743,18 +839,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.3534430407586384</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.7171167007711964</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3486859676157182</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6690921344378835</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3587973287788134</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.5635977568594747</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.3548406317534871</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0.2449560055595576</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2279153286614229</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.5456892516894799</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.2947711422708851</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.03376466003580448</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -763,18 +883,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>2.135598474088375</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.4390565158024744</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.920583915605156</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>6.335980954602465</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>1.234801534667558</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.396733161280781</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>5.04642540901809</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>5.464820318759533</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.049215034368182</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.1932531713666665</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>2.864611926159543</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>3.630104174315709</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -787,18 +931,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.1383344559788545</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3695850179170076</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6963870512466496</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.350229807698297</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.2291276781725422</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1831206205446013</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.8816545913427829</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1720556178422676</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.03054187949140156</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.265724106735765</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.7914751152293075</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.2597270101152884</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -807,18 +975,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5963338833430755</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3214383071224855</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.1123353956200197</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3636310471587473</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2395403542716678</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2072020874466147</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.1989018895166574</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4303856276543237</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2988313201682953</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.1250901787650639</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.2510448919308577</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.2596059436388237</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -827,18 +1019,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>1.388987668851301</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.956251178956316</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.337409562507553</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.902978299530738</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.9886256757298725</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.805104366182072</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.003352168650359</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>1.290891700030873</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.7556878086538127</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.8967168651199413</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.701855541758013</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>1.072886493081962</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -851,18 +1067,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.4384208727115824</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3279186853691498</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.567077685896064</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.4222334365879654</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.2067617806316675</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3189704433896726</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.5120189775290978</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.07011718702900505</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.302565472251037</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.3225905701213177</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.8910706178105623</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.2321720328521176</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -871,18 +1111,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1829145966814524</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.183562671568866</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.4281132439429997</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2710382387306711</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.24506977225449</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.09892895279036716</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.01450787277264432</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4288523751758833</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.06097237170683705</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.00104287289021572</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.3297652956141994</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2213248951580697</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -891,18 +1155,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>1.639741733808668</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.209618753590636</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.570686478166119</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.849683818100637</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.9411128253797628</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.9497497092621097</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.288800836153333</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>1.007065077057965</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.9055593230245791</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.8375876130045885</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.609093164428394</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.9660786602832517</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -915,18 +1203,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>0.4686795576551279</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>0.08594620494446657</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.552000720266968</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>1.110571010729093</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.1528532475506973</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.06558084882962205</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>1.643640278210043</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0.7776426360246544</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>0.07504103313829098</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0.07700979660687052</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>1.007681681094696</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.9511366241551313</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -935,18 +1247,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.3057875354865489</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-0.3125195461607429</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.2004596125319072</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0.1022301189568359</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.528559502527234</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.3672469299618076</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>0.41125811601722</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.0561350310457202</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.3046644194784853</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>-0.2469475023064241</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>0.3053811534177869</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>0.2077765342999655</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -955,18 +1291,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>1.63890558200504</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>0.7647909378131982</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>1.619330879501665</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>3.637914707870771</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.4268498070287821</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>0.8408676803995619</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>3.750367806978788</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>2.752803137161738</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>0.5661111282457028</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>0.4863132269513286</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>1.942618982030503</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>2.209191568028372</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -979,18 +1339,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>1.200829242556926</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>0.7095543883463077</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.3541586642470629</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.2476689552219004</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>-0.4770715454464879</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.8042428060711087</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>4.785397100245863</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.4141910428878955</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>-0.06504664708302861</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>0.7633021013057588</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>1.646803363875864</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>0.349883187190468</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -999,18 +1383,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>-0.1569828372144574</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.1011330155973417</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.3906008112444312</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.6055196940241854</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.7319195862640118</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.05472617745360971</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>1.149260289331419</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.6428716930080451</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>-0.4502918165009074</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0.1533672702157</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.5331337112346003</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.3691885728657247</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1019,18 +1427,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>8.972065736483515</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>2.227620604621314</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>1.890099908204302</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>2.369188993331343</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>0.04325925974848373</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>2.427777818102167</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>15.3565215377929</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>2.85100799162014</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>0.9893676559290171</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>1.713578231765931</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>3.421957561897846</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>1.687419102692003</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,18 +1475,42 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>0.3875401128599443</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.2708687451301481</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.5846072092213245</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.6880199210790625</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>-0.009170480002677332</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.125338453560772</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>1.486378490436553</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.470996827950255</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.151172809362361</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.1910883394262599</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.9911595597851065</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.5730000084314303</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1063,18 +1519,42 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>0.01807234236814698</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.01909210327210061</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.1943504839967818</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.2051127130941297</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-0.2120558159089518</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.0855157600342619</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>0.9671742479756954</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>0.008238012679907206</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>-0.03687290488937721</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.01428008451811237</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.6680144476898517</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>0.2224944469234256</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1083,18 +1563,42 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>1.164541096743308</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.6524545912231836</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.106242148869683</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.483072176018815</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0.2312294807679126</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.3962752555776078</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>2.123587130624234</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>1.031105050181496</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>0.4352115889373628</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>0.4206648960949213</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>1.379191266735973</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.9871560937660024</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
